--- a/analysis/assets/exp_results/subcategory_results.xlsx
+++ b/analysis/assets/exp_results/subcategory_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sungho/Downloads/kogem_exp_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2F345-FBDF-0340-829B-88B7A8B4E42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA91B4-A4D6-E04A-9F62-05144C490422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{BCFE4A2F-9108-9644-8F0F-3838A93FF7FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>Claude-3.5-Sonnet</t>
+  </si>
+  <si>
+    <t>s1-32B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B077F118-8D83-AE41-ACA2-858F632584C3}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1505,105 +1509,105 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4">
-        <v>42.31</v>
+        <v>53.85</v>
       </c>
       <c r="C17" s="4">
-        <v>21.93</v>
+        <v>37.97</v>
       </c>
       <c r="D17" s="4">
-        <v>17.239999999999998</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="E17" s="4">
-        <v>31.03</v>
+        <v>44.83</v>
       </c>
       <c r="F17" s="4">
-        <v>26.97</v>
+        <v>44.74</v>
       </c>
       <c r="G17" s="4">
-        <v>23.79</v>
+        <v>44.14</v>
       </c>
       <c r="H17" s="4">
-        <v>24.32</v>
+        <v>50</v>
       </c>
       <c r="I17" s="4">
-        <v>43.11</v>
+        <v>65.87</v>
       </c>
       <c r="J17" s="4">
-        <v>29.09</v>
+        <v>61.82</v>
       </c>
       <c r="K17" s="4">
-        <v>37.74</v>
+        <v>54.72</v>
       </c>
       <c r="L17" s="4">
-        <v>27.19</v>
+        <v>44.74</v>
       </c>
       <c r="M17" s="4">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
       <c r="N17" s="4">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="O17" s="4">
         <v>33.33</v>
       </c>
       <c r="P17" s="4">
-        <v>27.78</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="4">
-        <v>28.57</v>
+        <v>14.29</v>
       </c>
       <c r="R17" s="4">
-        <v>27.62</v>
+        <v>48.03</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4">
-        <v>38.46</v>
+        <v>42.31</v>
       </c>
       <c r="C18" s="4">
-        <v>22.46</v>
+        <v>21.93</v>
       </c>
       <c r="D18" s="4">
-        <v>35.630000000000003</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="E18" s="4">
-        <v>24.14</v>
+        <v>31.03</v>
       </c>
       <c r="F18" s="4">
-        <v>32.24</v>
+        <v>26.97</v>
       </c>
       <c r="G18" s="4">
-        <v>31.03</v>
+        <v>23.79</v>
       </c>
       <c r="H18" s="4">
-        <v>41.22</v>
+        <v>24.32</v>
       </c>
       <c r="I18" s="4">
-        <v>50.3</v>
+        <v>43.11</v>
       </c>
       <c r="J18" s="4">
-        <v>42.42</v>
+        <v>29.09</v>
       </c>
       <c r="K18" s="4">
-        <v>41.51</v>
+        <v>37.74</v>
       </c>
       <c r="L18" s="4">
-        <v>30.7</v>
+        <v>27.19</v>
       </c>
       <c r="M18" s="4">
-        <v>29.63</v>
+        <v>22.22</v>
       </c>
       <c r="N18" s="4">
-        <v>19.440000000000001</v>
+        <v>25</v>
       </c>
       <c r="O18" s="4">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
       <c r="P18" s="4">
         <v>27.78</v>
@@ -1612,566 +1616,622 @@
         <v>28.57</v>
       </c>
       <c r="R18" s="4">
-        <v>34.58</v>
+        <v>27.62</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4">
-        <v>57.69</v>
+        <v>38.46</v>
       </c>
       <c r="C19" s="4">
-        <v>34.76</v>
+        <v>22.46</v>
       </c>
       <c r="D19" s="4">
-        <v>49.43</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="E19" s="4">
-        <v>44.83</v>
+        <v>24.14</v>
       </c>
       <c r="F19" s="4">
-        <v>39.47</v>
+        <v>32.24</v>
       </c>
       <c r="G19" s="4">
-        <v>47.24</v>
+        <v>31.03</v>
       </c>
       <c r="H19" s="4">
-        <v>46.62</v>
+        <v>41.22</v>
       </c>
       <c r="I19" s="4">
-        <v>65.27</v>
+        <v>50.3</v>
       </c>
       <c r="J19" s="4">
-        <v>63.64</v>
+        <v>42.42</v>
       </c>
       <c r="K19" s="4">
-        <v>49.06</v>
+        <v>41.51</v>
       </c>
       <c r="L19" s="4">
-        <v>32.46</v>
+        <v>30.7</v>
       </c>
       <c r="M19" s="4">
-        <v>44.44</v>
+        <v>29.63</v>
       </c>
       <c r="N19" s="4">
         <v>19.440000000000001</v>
       </c>
       <c r="O19" s="4">
-        <v>44.44</v>
+        <v>22.22</v>
       </c>
       <c r="P19" s="4">
-        <v>55.56</v>
+        <v>27.78</v>
       </c>
       <c r="Q19" s="4">
-        <v>42.86</v>
+        <v>28.57</v>
       </c>
       <c r="R19" s="4">
-        <v>47.18</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4">
-        <v>50</v>
+        <v>57.69</v>
       </c>
       <c r="C20" s="4">
-        <v>35.83</v>
+        <v>34.76</v>
       </c>
       <c r="D20" s="4">
-        <v>47.13</v>
+        <v>49.43</v>
       </c>
       <c r="E20" s="4">
-        <v>41.38</v>
+        <v>44.83</v>
       </c>
       <c r="F20" s="4">
-        <v>33.549999999999997</v>
+        <v>39.47</v>
       </c>
       <c r="G20" s="4">
-        <v>41.38</v>
+        <v>47.24</v>
       </c>
       <c r="H20" s="4">
-        <v>50.68</v>
+        <v>46.62</v>
       </c>
       <c r="I20" s="4">
-        <v>69.459999999999994</v>
+        <v>65.27</v>
       </c>
       <c r="J20" s="4">
-        <v>56.97</v>
+        <v>63.64</v>
       </c>
       <c r="K20" s="4">
-        <v>45.28</v>
+        <v>49.06</v>
       </c>
       <c r="L20" s="4">
-        <v>43.86</v>
+        <v>32.46</v>
       </c>
       <c r="M20" s="4">
-        <v>37.04</v>
+        <v>44.44</v>
       </c>
       <c r="N20" s="4">
-        <v>11.11</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="O20" s="4">
         <v>44.44</v>
       </c>
       <c r="P20" s="4">
-        <v>33.33</v>
+        <v>55.56</v>
       </c>
       <c r="Q20" s="4">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="R20" s="4">
-        <v>45.34</v>
+        <v>47.18</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4">
-        <v>65.38</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4">
-        <v>43.32</v>
+        <v>35.83</v>
       </c>
       <c r="D21" s="4">
-        <v>56.32</v>
+        <v>47.13</v>
       </c>
       <c r="E21" s="4">
-        <v>37.93</v>
+        <v>41.38</v>
       </c>
       <c r="F21" s="4">
-        <v>48.03</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="G21" s="4">
-        <v>54.83</v>
+        <v>41.38</v>
       </c>
       <c r="H21" s="4">
-        <v>60.81</v>
+        <v>50.68</v>
       </c>
       <c r="I21" s="4">
-        <v>70.06</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="J21" s="4">
-        <v>76.36</v>
+        <v>56.97</v>
       </c>
       <c r="K21" s="4">
-        <v>56.6</v>
+        <v>45.28</v>
       </c>
       <c r="L21" s="4">
-        <v>47.37</v>
+        <v>43.86</v>
       </c>
       <c r="M21" s="4">
-        <v>51.85</v>
+        <v>37.04</v>
       </c>
       <c r="N21" s="4">
-        <v>27.78</v>
+        <v>11.11</v>
       </c>
       <c r="O21" s="4">
-        <v>50</v>
+        <v>44.44</v>
       </c>
       <c r="P21" s="4">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="Q21" s="4">
-        <v>71.430000000000007</v>
+        <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>56.04</v>
+        <v>45.34</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4">
-        <v>46.15</v>
+        <v>65.38</v>
       </c>
       <c r="C22" s="4">
-        <v>17.649999999999999</v>
+        <v>43.32</v>
       </c>
       <c r="D22" s="4">
-        <v>36.78</v>
+        <v>56.32</v>
       </c>
       <c r="E22" s="4">
-        <v>31.03</v>
+        <v>37.93</v>
       </c>
       <c r="F22" s="4">
-        <v>33.549999999999997</v>
+        <v>48.03</v>
       </c>
       <c r="G22" s="4">
-        <v>33.79</v>
+        <v>54.83</v>
       </c>
       <c r="H22" s="4">
-        <v>39.19</v>
+        <v>60.81</v>
       </c>
       <c r="I22" s="4">
-        <v>48.5</v>
+        <v>70.06</v>
       </c>
       <c r="J22" s="4">
-        <v>43.64</v>
+        <v>76.36</v>
       </c>
       <c r="K22" s="4">
-        <v>35.85</v>
+        <v>56.6</v>
       </c>
       <c r="L22" s="4">
-        <v>30.7</v>
+        <v>47.37</v>
       </c>
       <c r="M22" s="4">
-        <v>37.04</v>
+        <v>51.85</v>
       </c>
       <c r="N22" s="4">
-        <v>16.670000000000002</v>
+        <v>27.78</v>
       </c>
       <c r="O22" s="4">
         <v>50</v>
       </c>
       <c r="P22" s="4">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="4">
-        <v>28.57</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="R22" s="4">
-        <v>34.97</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4">
-        <v>80.77</v>
+        <v>46.15</v>
       </c>
       <c r="C23" s="4">
-        <v>42.78</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="D23" s="4">
-        <v>59.77</v>
+        <v>36.78</v>
       </c>
       <c r="E23" s="4">
-        <v>48.28</v>
+        <v>31.03</v>
       </c>
       <c r="F23" s="4">
-        <v>49.34</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="G23" s="4">
-        <v>63.1</v>
+        <v>33.79</v>
       </c>
       <c r="H23" s="4">
-        <v>66.89</v>
+        <v>39.19</v>
       </c>
       <c r="I23" s="4">
-        <v>76.650000000000006</v>
+        <v>48.5</v>
       </c>
       <c r="J23" s="4">
-        <v>75.150000000000006</v>
+        <v>43.64</v>
       </c>
       <c r="K23" s="4">
-        <v>66.040000000000006</v>
+        <v>35.85</v>
       </c>
       <c r="L23" s="4">
-        <v>54.39</v>
+        <v>30.7</v>
       </c>
       <c r="M23" s="4">
-        <v>44.44</v>
+        <v>37.04</v>
       </c>
       <c r="N23" s="4">
-        <v>25</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="O23" s="4">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="P23" s="4">
-        <v>27.78</v>
+        <v>33.33</v>
       </c>
       <c r="Q23" s="4">
-        <v>42.86</v>
+        <v>28.57</v>
       </c>
       <c r="R23" s="4">
-        <v>59.97</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4">
-        <v>30.77</v>
+        <v>80.77</v>
       </c>
       <c r="C24" s="4">
-        <v>19.79</v>
+        <v>42.78</v>
       </c>
       <c r="D24" s="4">
-        <v>25.29</v>
+        <v>59.77</v>
       </c>
       <c r="E24" s="4">
-        <v>27.59</v>
+        <v>48.28</v>
       </c>
       <c r="F24" s="4">
-        <v>28.95</v>
+        <v>49.34</v>
       </c>
       <c r="G24" s="4">
-        <v>25.86</v>
+        <v>63.1</v>
       </c>
       <c r="H24" s="4">
-        <v>30.41</v>
+        <v>66.89</v>
       </c>
       <c r="I24" s="4">
-        <v>34.729999999999997</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="J24" s="4">
-        <v>27.27</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="K24" s="4">
-        <v>33.96</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="L24" s="4">
-        <v>22.81</v>
+        <v>54.39</v>
       </c>
       <c r="M24" s="4">
-        <v>29.63</v>
+        <v>44.44</v>
       </c>
       <c r="N24" s="4">
-        <v>22.22</v>
+        <v>25</v>
       </c>
       <c r="O24" s="4">
+        <v>66.67</v>
+      </c>
+      <c r="P24" s="4">
         <v>27.78</v>
       </c>
-      <c r="P24" s="4">
-        <v>44.44</v>
-      </c>
       <c r="Q24" s="4">
-        <v>14.29</v>
+        <v>42.86</v>
       </c>
       <c r="R24" s="4">
-        <v>27.3</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4">
-        <v>50</v>
+        <v>30.77</v>
       </c>
       <c r="C25" s="4">
-        <v>29.95</v>
+        <v>19.79</v>
       </c>
       <c r="D25" s="4">
-        <v>29.89</v>
+        <v>25.29</v>
       </c>
       <c r="E25" s="4">
-        <v>20.69</v>
+        <v>27.59</v>
       </c>
       <c r="F25" s="4">
-        <v>40.130000000000003</v>
+        <v>28.95</v>
       </c>
       <c r="G25" s="4">
-        <v>35.17</v>
+        <v>25.86</v>
       </c>
       <c r="H25" s="4">
-        <v>39.19</v>
+        <v>30.41</v>
       </c>
       <c r="I25" s="4">
-        <v>57.49</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="J25" s="4">
-        <v>48.48</v>
+        <v>27.27</v>
       </c>
       <c r="K25" s="4">
-        <v>47.17</v>
+        <v>33.96</v>
       </c>
       <c r="L25" s="4">
-        <v>42.98</v>
+        <v>22.81</v>
       </c>
       <c r="M25" s="4">
-        <v>33.33</v>
+        <v>29.63</v>
       </c>
       <c r="N25" s="4">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="O25" s="4">
-        <v>61.11</v>
+        <v>27.78</v>
       </c>
       <c r="P25" s="4">
-        <v>38.89</v>
+        <v>44.44</v>
       </c>
       <c r="Q25" s="4">
         <v>14.29</v>
       </c>
       <c r="R25" s="4">
-        <v>39.96</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4">
-        <v>65.38</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4">
-        <v>41.71</v>
+        <v>29.95</v>
       </c>
       <c r="D26" s="4">
-        <v>57.47</v>
+        <v>29.89</v>
       </c>
       <c r="E26" s="4">
-        <v>34.479999999999997</v>
+        <v>20.69</v>
       </c>
       <c r="F26" s="4">
-        <v>51.32</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="G26" s="4">
-        <v>53.45</v>
+        <v>35.17</v>
       </c>
       <c r="H26" s="4">
-        <v>59.46</v>
+        <v>39.19</v>
       </c>
       <c r="I26" s="4">
-        <v>78.44</v>
+        <v>57.49</v>
       </c>
       <c r="J26" s="4">
-        <v>70.91</v>
+        <v>48.48</v>
       </c>
       <c r="K26" s="4">
-        <v>54.72</v>
+        <v>47.17</v>
       </c>
       <c r="L26" s="4">
-        <v>57.89</v>
+        <v>42.98</v>
       </c>
       <c r="M26" s="4">
-        <v>66.67</v>
+        <v>33.33</v>
       </c>
       <c r="N26" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O26" s="4">
-        <v>66.67</v>
+        <v>61.11</v>
       </c>
       <c r="P26" s="4">
-        <v>61.11</v>
+        <v>38.89</v>
       </c>
       <c r="Q26" s="4">
-        <v>57.14</v>
+        <v>14.29</v>
       </c>
       <c r="R26" s="4">
-        <v>57.87</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4">
-        <v>84.62</v>
+        <v>65.38</v>
       </c>
       <c r="C27" s="4">
-        <v>70.05</v>
+        <v>41.71</v>
       </c>
       <c r="D27" s="4">
-        <v>81.61</v>
+        <v>57.47</v>
       </c>
       <c r="E27" s="4">
-        <v>72.41</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="F27" s="4">
-        <v>79.61</v>
+        <v>51.32</v>
       </c>
       <c r="G27" s="4">
-        <v>79.66</v>
+        <v>53.45</v>
       </c>
       <c r="H27" s="4">
-        <v>81.08</v>
+        <v>59.46</v>
       </c>
       <c r="I27" s="4">
-        <v>91.02</v>
+        <v>78.44</v>
       </c>
       <c r="J27" s="4">
-        <v>88.48</v>
+        <v>70.91</v>
       </c>
       <c r="K27" s="4">
-        <v>86.79</v>
+        <v>54.72</v>
       </c>
       <c r="L27" s="4">
-        <v>80.7</v>
+        <v>57.89</v>
       </c>
       <c r="M27" s="4">
-        <v>81.48</v>
+        <v>66.67</v>
       </c>
       <c r="N27" s="4">
-        <v>69.44</v>
+        <v>50</v>
       </c>
       <c r="O27" s="4">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="P27" s="4">
-        <v>72.22</v>
+        <v>61.11</v>
       </c>
       <c r="Q27" s="4">
-        <v>100</v>
+        <v>57.14</v>
       </c>
       <c r="R27" s="4">
-        <v>81.040000000000006</v>
+        <v>57.87</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4">
+        <v>84.62</v>
+      </c>
+      <c r="C28" s="4">
+        <v>70.05</v>
+      </c>
+      <c r="D28" s="4">
+        <v>81.61</v>
+      </c>
+      <c r="E28" s="4">
+        <v>72.41</v>
+      </c>
+      <c r="F28" s="4">
+        <v>79.61</v>
+      </c>
+      <c r="G28" s="4">
+        <v>79.66</v>
+      </c>
+      <c r="H28" s="4">
+        <v>81.08</v>
+      </c>
+      <c r="I28" s="4">
+        <v>91.02</v>
+      </c>
+      <c r="J28" s="4">
+        <v>88.48</v>
+      </c>
+      <c r="K28" s="4">
+        <v>86.79</v>
+      </c>
+      <c r="L28" s="4">
+        <v>80.7</v>
+      </c>
+      <c r="M28" s="4">
+        <v>81.48</v>
+      </c>
+      <c r="N28" s="4">
+        <v>69.44</v>
+      </c>
+      <c r="O28" s="4">
+        <v>83.33</v>
+      </c>
+      <c r="P28" s="4">
+        <v>72.22</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>100</v>
+      </c>
+      <c r="R28" s="4">
+        <v>81.040000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4">
         <v>65.13</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>66.930000000000007</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="4">
         <v>50.67</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>62.28</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>59.19</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>64.12</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>65.88</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="4">
         <v>70.86</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J29" s="4">
         <v>69.349999999999994</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K29" s="4">
         <v>76.459999999999994</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L29" s="4">
         <v>55.3</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M29" s="4">
         <v>50.25</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N29" s="4">
         <v>58.46</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O29" s="4">
         <v>60.2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P29" s="4">
         <v>41.68</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q29" s="4">
         <v>51.58</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R29" s="4">
         <v>63.04</v>
       </c>
     </row>
